--- a/data/trans_orig/Hacinamiento_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>41526</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28801</v>
+        <v>30325</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55433</v>
+        <v>56191</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0713495607506905</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04948645341653379</v>
+        <v>0.05210436338558865</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09524506888333044</v>
+        <v>0.09654664886517333</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>74</v>
@@ -765,19 +765,19 @@
         <v>78394</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>61640</v>
+        <v>60532</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>95425</v>
+        <v>96815</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08508186715901932</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06689873504374444</v>
+        <v>0.06569555728296991</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1035649339755668</v>
+        <v>0.1050737035494463</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>111</v>
@@ -786,19 +786,19 @@
         <v>119920</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>101045</v>
+        <v>100617</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>144712</v>
+        <v>144647</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0797657443621252</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06721071237133787</v>
+        <v>0.06692598205865573</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09625587521092405</v>
+        <v>0.09621260687903678</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>540481</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>526574</v>
+        <v>525816</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>553206</v>
+        <v>551682</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9286504392493095</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9047549311166695</v>
+        <v>0.9034533511348265</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.950513546583466</v>
+        <v>0.9478956366144113</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>810</v>
@@ -836,19 +836,19 @@
         <v>843006</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>825975</v>
+        <v>824585</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>859760</v>
+        <v>860868</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9149181328409807</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8964350660244332</v>
+        <v>0.8949262964505537</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9331012649562557</v>
+        <v>0.9343044427170301</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1345</v>
@@ -857,19 +857,19 @@
         <v>1383487</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1358695</v>
+        <v>1358760</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1402362</v>
+        <v>1402790</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9202342556378748</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9037441247890758</v>
+        <v>0.9037873931209635</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9327892876286621</v>
+        <v>0.9330740179413446</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>55006</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40598</v>
+        <v>40008</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>71057</v>
+        <v>71222</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05107638932540946</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03769830370863856</v>
+        <v>0.03715013571720754</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06598137292042937</v>
+        <v>0.06613472086138024</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>60</v>
@@ -982,19 +982,19 @@
         <v>66382</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51071</v>
+        <v>50619</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>84251</v>
+        <v>83102</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06288942566168106</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04838394703123345</v>
+        <v>0.04795572244831371</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07981853687819811</v>
+        <v>0.07873037350011537</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>110</v>
@@ -1003,19 +1003,19 @@
         <v>121387</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>101287</v>
+        <v>99202</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>145445</v>
+        <v>144623</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05692362675120414</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04749774539277769</v>
+        <v>0.04652020147689641</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06820541219001636</v>
+        <v>0.06781978721604258</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1021924</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1005873</v>
+        <v>1005708</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1036332</v>
+        <v>1036922</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9489236106745905</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9340186270795706</v>
+        <v>0.9338652791386198</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9623016962913613</v>
+        <v>0.9628498642827925</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>966</v>
@@ -1053,19 +1053,19 @@
         <v>989146</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>971277</v>
+        <v>972426</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1004457</v>
+        <v>1004909</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9371105743383189</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9201814631218018</v>
+        <v>0.9212696264998844</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9516160529687664</v>
+        <v>0.9520442775516862</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1970</v>
@@ -1074,19 +1074,19 @@
         <v>2011071</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1987013</v>
+        <v>1987835</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2031171</v>
+        <v>2033256</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9430763732487959</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9317945878099837</v>
+        <v>0.9321802127839577</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9525022546072224</v>
+        <v>0.9534797985231037</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>46158</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34436</v>
+        <v>34242</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60811</v>
+        <v>61464</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04136183054689994</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03085789894200604</v>
+        <v>0.03068411934084178</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05449264381321049</v>
+        <v>0.0550778530672303</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -1199,19 +1199,19 @@
         <v>38928</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27589</v>
+        <v>26961</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54343</v>
+        <v>52944</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03940203866503237</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0279249557980724</v>
+        <v>0.02728894537454755</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05500500898815222</v>
+        <v>0.05358843007490711</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>82</v>
@@ -1220,19 +1220,19 @@
         <v>85086</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>66124</v>
+        <v>68069</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>105122</v>
+        <v>104800</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04044154417885111</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03142886393821558</v>
+        <v>0.03235351326028869</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04996468009394035</v>
+        <v>0.04981184653744968</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1069796</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1055143</v>
+        <v>1054490</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1081518</v>
+        <v>1081712</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9586381694531001</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9455073561867895</v>
+        <v>0.9449221469327698</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9691421010579939</v>
+        <v>0.9693158806591582</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>939</v>
@@ -1270,19 +1270,19 @@
         <v>949040</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>933625</v>
+        <v>935024</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>960379</v>
+        <v>961007</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9605979613349677</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9449949910118479</v>
+        <v>0.9464115699250933</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9720750442019277</v>
+        <v>0.9727110546254525</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1992</v>
@@ -1291,19 +1291,19 @@
         <v>2018836</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1998800</v>
+        <v>1999122</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2037798</v>
+        <v>2035853</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9595584558211488</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9500353199060598</v>
+        <v>0.9501881534625505</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9685711360617847</v>
+        <v>0.9676464867397113</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>9101</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3860</v>
+        <v>4251</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17644</v>
+        <v>17397</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02042770083434508</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008663891085234771</v>
+        <v>0.009541974796278604</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03960347245217018</v>
+        <v>0.03904954548648788</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1416,19 +1416,19 @@
         <v>13420</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7559</v>
+        <v>7603</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22960</v>
+        <v>22776</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03933621478076166</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02215710208353594</v>
+        <v>0.02228472633602935</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06730048224490724</v>
+        <v>0.06676218951820943</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -1437,19 +1437,19 @@
         <v>22521</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14035</v>
+        <v>14074</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34628</v>
+        <v>32490</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02862778005285464</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01784113411549385</v>
+        <v>0.01789061753689286</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04401767582476397</v>
+        <v>0.0413003610294181</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>436415</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>427872</v>
+        <v>428119</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>441656</v>
+        <v>441265</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9795722991656549</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9603965275478297</v>
+        <v>0.960950454513512</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9913361089147652</v>
+        <v>0.9904580252037213</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>326</v>
@@ -1487,19 +1487,19 @@
         <v>327738</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>318198</v>
+        <v>318382</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>333599</v>
+        <v>333555</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9606637852192383</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9326995177550927</v>
+        <v>0.9332378104817903</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9778428979164639</v>
+        <v>0.9777152736639706</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>752</v>
@@ -1508,19 +1508,19 @@
         <v>764153</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>752046</v>
+        <v>754184</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>772639</v>
+        <v>772600</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9713722199471454</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9559823241752364</v>
+        <v>0.958699638970582</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9821588658845062</v>
+        <v>0.9821093824631074</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>151790</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>128080</v>
+        <v>127625</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>179589</v>
+        <v>178973</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04713391667504716</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03977128965793642</v>
+        <v>0.03963006451652818</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05576601449295011</v>
+        <v>0.05557475658140605</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>184</v>
@@ -1633,19 +1633,19 @@
         <v>197124</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>170054</v>
+        <v>169970</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>228107</v>
+        <v>226627</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05962510435295619</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05143717017481073</v>
+        <v>0.05141183995901381</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06899688033612582</v>
+        <v>0.06854921084891168</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>324</v>
@@ -1654,19 +1654,19 @@
         <v>348914</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>312313</v>
+        <v>312351</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>390335</v>
+        <v>383967</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05346147051993384</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04785329691449058</v>
+        <v>0.04785915248711729</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05980809952860803</v>
+        <v>0.0588324007799441</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3068618</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3040819</v>
+        <v>3041435</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3092328</v>
+        <v>3092783</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9528660833249528</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9442339855070498</v>
+        <v>0.9444252434185941</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9602287103420635</v>
+        <v>0.960369935483472</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3041</v>
@@ -1704,19 +1704,19 @@
         <v>3108930</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3077947</v>
+        <v>3079427</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3136000</v>
+        <v>3136084</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9403748956470438</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9310031196638742</v>
+        <v>0.9314507891510885</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9485628298251894</v>
+        <v>0.9485881600409862</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6059</v>
@@ -1725,19 +1725,19 @@
         <v>6177548</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6136127</v>
+        <v>6142495</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6214149</v>
+        <v>6214111</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9465385294800661</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9401919004713919</v>
+        <v>0.9411675992200559</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9521467030855094</v>
+        <v>0.9521408475128827</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>86271</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>69469</v>
+        <v>67933</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>107586</v>
+        <v>105467</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08282650378293188</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0666955214956122</v>
+        <v>0.06522047767321887</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1032898033545173</v>
+        <v>0.1012559950740728</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>108</v>
@@ -2090,19 +2090,19 @@
         <v>116394</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>97437</v>
+        <v>96271</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>136457</v>
+        <v>140120</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1045174541626798</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08749478391534617</v>
+        <v>0.08644809041298895</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1225331587634633</v>
+        <v>0.125822687995838</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>190</v>
@@ -2111,19 +2111,19 @@
         <v>202665</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>177238</v>
+        <v>175006</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>232417</v>
+        <v>231178</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0940345068439761</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08223650773147158</v>
+        <v>0.0812009219546945</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1078393186261119</v>
+        <v>0.1072640409520249</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>955318</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>934003</v>
+        <v>936122</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>972120</v>
+        <v>973656</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9171734962170681</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8967101966454825</v>
+        <v>0.8987440049259273</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9333044785043878</v>
+        <v>0.9347795223267812</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>917</v>
@@ -2161,19 +2161,19 @@
         <v>997237</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>977174</v>
+        <v>973511</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1016194</v>
+        <v>1017360</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8954825458373202</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8774668412365371</v>
+        <v>0.8741773120041619</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9125052160846541</v>
+        <v>0.913551909587011</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1811</v>
@@ -2182,19 +2182,19 @@
         <v>1952555</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1922803</v>
+        <v>1924042</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1977982</v>
+        <v>1980214</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9059654931560239</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8921606813738883</v>
+        <v>0.8927359590479753</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9177634922685285</v>
+        <v>0.9187990780453055</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>36553</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25458</v>
+        <v>25674</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51281</v>
+        <v>50751</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03755669420574519</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02615689805148386</v>
+        <v>0.0263794330752946</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05268889531063559</v>
+        <v>0.05214442074781899</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -2307,19 +2307,19 @@
         <v>56730</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42673</v>
+        <v>43165</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>73125</v>
+        <v>72024</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05198842083871637</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0391061605982065</v>
+        <v>0.03955664476838184</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06701274018333166</v>
+        <v>0.06600397305145056</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>88</v>
@@ -2328,19 +2328,19 @@
         <v>93283</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>74100</v>
+        <v>75920</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>113556</v>
+        <v>113589</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04518477995441155</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03589277640465031</v>
+        <v>0.03677443319092341</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05500468534777531</v>
+        <v>0.05502023294791586</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>936721</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>921993</v>
+        <v>922523</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>947816</v>
+        <v>947600</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9624433057942549</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9473111046893645</v>
+        <v>0.947855579252181</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9738431019485162</v>
+        <v>0.9736205669247053</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>964</v>
@@ -2378,19 +2378,19 @@
         <v>1034483</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1018088</v>
+        <v>1019189</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1048540</v>
+        <v>1048048</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9480115791612836</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9329872598166685</v>
+        <v>0.9339960269485496</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9608938394017936</v>
+        <v>0.9604433552316184</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1850</v>
@@ -2399,19 +2399,19 @@
         <v>1971204</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1950931</v>
+        <v>1950898</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1990387</v>
+        <v>1988567</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9548152200455885</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9449953146522246</v>
+        <v>0.944979767052084</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9641072235953495</v>
+        <v>0.9632255668090766</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>29544</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19949</v>
+        <v>20368</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40672</v>
+        <v>41034</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03354965173754873</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02265389622844879</v>
+        <v>0.02312977684634868</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04618580427429489</v>
+        <v>0.04659736710169544</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -2524,19 +2524,19 @@
         <v>27665</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18280</v>
+        <v>17441</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39419</v>
+        <v>40017</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03170155400955183</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02094772306790777</v>
+        <v>0.01998546176617894</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04517006361921922</v>
+        <v>0.0458563226240972</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>55</v>
@@ -2545,19 +2545,19 @@
         <v>57209</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43228</v>
+        <v>41823</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>73615</v>
+        <v>72377</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03262978593307723</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02465528705447337</v>
+        <v>0.02385448271143789</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04198727754996435</v>
+        <v>0.04128074521337349</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>851063</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>839935</v>
+        <v>839573</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>860658</v>
+        <v>860239</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9664503482624512</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.953814195725705</v>
+        <v>0.9534026328983045</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9773461037715512</v>
+        <v>0.9768702231536514</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>792</v>
@@ -2595,19 +2595,19 @@
         <v>845005</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>833251</v>
+        <v>832653</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>854390</v>
+        <v>855229</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9682984459904481</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9548299363807806</v>
+        <v>0.9541436773759027</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9790522769320921</v>
+        <v>0.9800145382338207</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1589</v>
@@ -2616,19 +2616,19 @@
         <v>1696067</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1679661</v>
+        <v>1680899</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1710048</v>
+        <v>1711453</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9673702140669228</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9580127224500357</v>
+        <v>0.9587192547866262</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9753447129455272</v>
+        <v>0.9761455172885618</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>9982</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4904</v>
+        <v>4420</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17380</v>
+        <v>16919</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01992344888193866</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009788390687203163</v>
+        <v>0.008822095849368947</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03468887104166323</v>
+        <v>0.0337702340268584</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -2741,19 +2741,19 @@
         <v>18909</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11893</v>
+        <v>11279</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29505</v>
+        <v>28931</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04196678572342058</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02639405783624886</v>
+        <v>0.02503145156024716</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06548251291698724</v>
+        <v>0.06420745481398704</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -2762,19 +2762,19 @@
         <v>28891</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19522</v>
+        <v>19469</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>39321</v>
+        <v>41176</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03036095141407132</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02051520189666919</v>
+        <v>0.02045915864619734</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04132103004045203</v>
+        <v>0.04327093697168504</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>491035</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>483637</v>
+        <v>484098</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>496113</v>
+        <v>496597</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9800765511180614</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9653111289583366</v>
+        <v>0.9662297659731417</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9902116093127968</v>
+        <v>0.9911779041506311</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>392</v>
@@ -2812,19 +2812,19 @@
         <v>431671</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>421075</v>
+        <v>421649</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>438687</v>
+        <v>439301</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9580332142765794</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9345174870830129</v>
+        <v>0.9357925451860128</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9736059421637515</v>
+        <v>0.9749685484397527</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>841</v>
@@ -2833,19 +2833,19 @@
         <v>922706</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>912276</v>
+        <v>910421</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>932075</v>
+        <v>932128</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9696390485859286</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9586789699595479</v>
+        <v>0.9567290630283147</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9794847981033308</v>
+        <v>0.9795408413538026</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>162350</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>139802</v>
+        <v>137917</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>190777</v>
+        <v>186891</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04779944349268187</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04116085370014578</v>
+        <v>0.04060569239974428</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05616901297294521</v>
+        <v>0.05502492024516683</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>206</v>
@@ -2958,19 +2958,19 @@
         <v>219699</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>192955</v>
+        <v>191514</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>253828</v>
+        <v>252072</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06227121448939538</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05469105164157746</v>
+        <v>0.0542824481206296</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07194484888981521</v>
+        <v>0.071446964814097</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>361</v>
@@ -2979,19 +2979,19 @@
         <v>382049</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>344504</v>
+        <v>346507</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>418761</v>
+        <v>422063</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05517285280312221</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0497508851928254</v>
+        <v>0.05004011219789634</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06047450586845161</v>
+        <v>0.06095140754445767</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3234136</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3205709</v>
+        <v>3209595</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3256684</v>
+        <v>3258569</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9522005565073182</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9438309870270548</v>
+        <v>0.9449750797548331</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9588391462998542</v>
+        <v>0.9593943076002557</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3065</v>
@@ -3029,19 +3029,19 @@
         <v>3308395</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3274266</v>
+        <v>3276022</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3335139</v>
+        <v>3336580</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9377287855106047</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9280551511101842</v>
+        <v>0.928553035185903</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9453089483584225</v>
+        <v>0.9457175518793712</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6091</v>
@@ -3050,19 +3050,19 @@
         <v>6542531</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6505819</v>
+        <v>6502517</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6580076</v>
+        <v>6578073</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9448271471968778</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9395254941315486</v>
+        <v>0.9390485924555428</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.950249114807175</v>
+        <v>0.9499598878021038</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>86234</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>69067</v>
+        <v>69621</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>106939</v>
+        <v>107034</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07681750933133652</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06152491027383033</v>
+        <v>0.06201856831557043</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09526176537661186</v>
+        <v>0.09534704277845704</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>77</v>
@@ -3415,19 +3415,19 @@
         <v>79136</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>62743</v>
+        <v>63861</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>98223</v>
+        <v>100780</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06302652387978734</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04997094183955635</v>
+        <v>0.05086103132282811</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07822846068247073</v>
+        <v>0.08026478868430635</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>154</v>
@@ -3436,19 +3436,19 @@
         <v>165369</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>139689</v>
+        <v>141585</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>193878</v>
+        <v>192048</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06953633945088659</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05873801467352232</v>
+        <v>0.05953538406495035</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08152411409058954</v>
+        <v>0.08075464394033394</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1036344</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1015639</v>
+        <v>1015544</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1053511</v>
+        <v>1052957</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9231824906686634</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9047382346233882</v>
+        <v>0.9046529572215428</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9384750897261697</v>
+        <v>0.9379814316844295</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1107</v>
@@ -3486,19 +3486,19 @@
         <v>1176457</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1157370</v>
+        <v>1154813</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1192850</v>
+        <v>1191732</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9369734761202126</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9217715393175295</v>
+        <v>0.9197352113156939</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9500290581604437</v>
+        <v>0.949138968677172</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2091</v>
@@ -3507,19 +3507,19 @@
         <v>2212803</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2184294</v>
+        <v>2186124</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2238483</v>
+        <v>2236587</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9304636605491134</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9184758859094103</v>
+        <v>0.9192453560596661</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9412619853264776</v>
+        <v>0.9404646159350497</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>24221</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15901</v>
+        <v>15091</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36425</v>
+        <v>34965</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02687797160730458</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0176458584799951</v>
+        <v>0.01674709160050255</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04042087581795207</v>
+        <v>0.038801339498057</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -3632,19 +3632,19 @@
         <v>37127</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25886</v>
+        <v>26054</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51111</v>
+        <v>49472</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03712730776636387</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02588599673116668</v>
+        <v>0.02605409097494842</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05111049901216132</v>
+        <v>0.04947221835436571</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -3653,19 +3653,19 @@
         <v>61348</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45760</v>
+        <v>47693</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>78550</v>
+        <v>76669</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03226915297419661</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02406984885327356</v>
+        <v>0.02508660981542917</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04131740960699842</v>
+        <v>0.04032806015916725</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>876913</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>864709</v>
+        <v>866169</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>885233</v>
+        <v>886043</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9731220283926955</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9595791241820483</v>
+        <v>0.9611986605019431</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9823541415200049</v>
+        <v>0.9832529083994974</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>910</v>
@@ -3703,19 +3703,19 @@
         <v>962878</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>948894</v>
+        <v>950533</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>974119</v>
+        <v>973951</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9628726922336361</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9488895009878385</v>
+        <v>0.950527781645634</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.974114003268833</v>
+        <v>0.9739459090250516</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1761</v>
@@ -3724,19 +3724,19 @@
         <v>1839791</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1822589</v>
+        <v>1824470</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1855379</v>
+        <v>1853446</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9677308470258034</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9586825903930015</v>
+        <v>0.9596719398408325</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9759301511467264</v>
+        <v>0.9749133901845708</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>18770</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11231</v>
+        <v>11215</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30121</v>
+        <v>30612</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02287889757550094</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01368927661297254</v>
+        <v>0.01366949142887533</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03671470032163227</v>
+        <v>0.03731318177284684</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -3849,19 +3849,19 @@
         <v>26764</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17571</v>
+        <v>17889</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38708</v>
+        <v>37903</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03488895863042092</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02290543584926985</v>
+        <v>0.02331990439155281</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05045905456670397</v>
+        <v>0.04940922728025005</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -3870,7 +3870,7 @@
         <v>45534</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32415</v>
+        <v>33267</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>59953</v>
@@ -3879,10 +3879,10 @@
         <v>0.0286823695152731</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02041833039601708</v>
+        <v>0.02095534927844576</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03776457693320585</v>
+        <v>0.0377649700155679</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>801640</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>790289</v>
+        <v>789798</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>809179</v>
+        <v>809195</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.977121102424499</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9632852996783676</v>
+        <v>0.9626868182271526</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9863107233870274</v>
+        <v>0.9863305085711245</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>698</v>
@@ -3920,19 +3920,19 @@
         <v>740361</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>728417</v>
+        <v>729222</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>749554</v>
+        <v>749236</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.965111041369579</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.949540945433296</v>
+        <v>0.9505907727197489</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9770945641507301</v>
+        <v>0.9766800956084467</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1466</v>
@@ -3944,16 +3944,16 @@
         <v>1527582</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1555120</v>
+        <v>1554268</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9713176304847269</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.962235423066794</v>
+        <v>0.9622350299844321</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9795816696039829</v>
+        <v>0.9790446507215543</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>13543</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7531</v>
+        <v>7475</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23070</v>
+        <v>23243</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02688091474472754</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01494878649115707</v>
+        <v>0.0148376760322377</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04579142602188972</v>
+        <v>0.04613344419599787</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -4066,19 +4066,19 @@
         <v>15521</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8434</v>
+        <v>8250</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25211</v>
+        <v>24998</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03195394882016625</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01736227881591814</v>
+        <v>0.01698434907529368</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05190189839824439</v>
+        <v>0.05146355481294675</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -4087,19 +4087,19 @@
         <v>29064</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19935</v>
+        <v>19257</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>41770</v>
+        <v>41594</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02937109968129252</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02014579667118609</v>
+        <v>0.01945982379955124</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04221063815398855</v>
+        <v>0.042032658852233</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>490271</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>480744</v>
+        <v>480571</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>496283</v>
+        <v>496339</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9731190852552725</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9542085739781103</v>
+        <v>0.9538665558040021</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9850512135088429</v>
+        <v>0.9851623239677625</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>437</v>
@@ -4137,19 +4137,19 @@
         <v>470217</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>460527</v>
+        <v>460740</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>477304</v>
+        <v>477488</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9680460511798338</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9480981016017556</v>
+        <v>0.9485364451870533</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9826377211840819</v>
+        <v>0.9830156509247064</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>893</v>
@@ -4158,19 +4158,19 @@
         <v>960488</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>947782</v>
+        <v>947958</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>969617</v>
+        <v>970295</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9706289003187075</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9577893618460113</v>
+        <v>0.9579673411477669</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9798542033288138</v>
+        <v>0.9805401762004488</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>142767</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>120574</v>
+        <v>119738</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>169283</v>
+        <v>169776</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04264339379516215</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03601451210583271</v>
+        <v>0.03576482707043645</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05056350712778815</v>
+        <v>0.05071064008345769</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>153</v>
@@ -4283,19 +4283,19 @@
         <v>158549</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>135777</v>
+        <v>133577</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>184528</v>
+        <v>183996</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04519035540037439</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03869985598257399</v>
+        <v>0.03807274323723042</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05259514755412493</v>
+        <v>0.05244362605716759</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>281</v>
@@ -4304,19 +4304,19 @@
         <v>301316</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>265438</v>
+        <v>267354</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>333145</v>
+        <v>339566</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04394668992382221</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0387138893753833</v>
+        <v>0.03899340654056772</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04858891554714407</v>
+        <v>0.0495254547897974</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3205169</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3178653</v>
+        <v>3178160</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3227362</v>
+        <v>3228198</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9573566062048379</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.949436492872212</v>
+        <v>0.9492893599165425</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9639854878941673</v>
+        <v>0.9642351729295637</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3152</v>
@@ -4354,19 +4354,19 @@
         <v>3349913</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3323934</v>
+        <v>3324466</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3372685</v>
+        <v>3374885</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9548096445996256</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.947404852445875</v>
+        <v>0.9475563739428315</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.961300144017426</v>
+        <v>0.9619272567627691</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6211</v>
@@ -4375,19 +4375,19 @@
         <v>6555082</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6523253</v>
+        <v>6516832</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6590960</v>
+        <v>6589044</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9560533100761778</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9514110844528558</v>
+        <v>0.9504745452102027</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9612861106246168</v>
+        <v>0.9610065934594323</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>25796</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15572</v>
+        <v>16557</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37412</v>
+        <v>38847</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05186104386475494</v>
+        <v>0.05186104386475493</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03130724148426021</v>
+        <v>0.03328722511459217</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07521649396126764</v>
+        <v>0.07810099929880004</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -4740,19 +4740,19 @@
         <v>37478</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26835</v>
+        <v>25870</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53374</v>
+        <v>52774</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.06023859852381886</v>
+        <v>0.06023859852381883</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04313180039789948</v>
+        <v>0.04158127677932354</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08578699258851294</v>
+        <v>0.08482259926487568</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>61</v>
@@ -4761,19 +4761,19 @@
         <v>63274</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>47863</v>
+        <v>47383</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>80568</v>
+        <v>82098</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05651663319761348</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04275113887008386</v>
+        <v>0.04232303379827286</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07196359908514233</v>
+        <v>0.07333052246406899</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>471601</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>459985</v>
+        <v>458550</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>481825</v>
+        <v>480840</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.948138956135245</v>
+        <v>0.9481389561352449</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9247835060387323</v>
+        <v>0.9218990007011998</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9686927585157397</v>
+        <v>0.9667127748854079</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>820</v>
@@ -4811,19 +4811,19 @@
         <v>584686</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>568790</v>
+        <v>569390</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>595329</v>
+        <v>596294</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9397614014761813</v>
+        <v>0.939761401476181</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9142130074114871</v>
+        <v>0.9151774007351244</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9568681996021008</v>
+        <v>0.9584187232206766</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1251</v>
@@ -4832,19 +4832,19 @@
         <v>1056287</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1038993</v>
+        <v>1037463</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1071698</v>
+        <v>1072178</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9434833668023864</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9280364009148577</v>
+        <v>0.9266694775359315</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9572488611299161</v>
+        <v>0.9576769662017275</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>24853</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15304</v>
+        <v>15175</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39673</v>
+        <v>40193</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02598210214433834</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01599944818201023</v>
+        <v>0.01586366828787497</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04147474930769332</v>
+        <v>0.04201867002309539</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -4957,19 +4957,19 @@
         <v>45567</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33463</v>
+        <v>33386</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>61737</v>
+        <v>60565</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04108668781934195</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03017318399003422</v>
+        <v>0.03010340380039292</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05566749905073439</v>
+        <v>0.05461033260188135</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -4978,19 +4978,19 @@
         <v>70420</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>55110</v>
+        <v>54415</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>91053</v>
+        <v>91358</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03409186956266037</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02668015731801449</v>
+        <v>0.02634339429776213</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04408056699180895</v>
+        <v>0.0442282123692877</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>931708</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>916888</v>
+        <v>916368</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>941257</v>
+        <v>941386</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9740178978556616</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9585252506923069</v>
+        <v>0.9579813299769045</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9840005518179898</v>
+        <v>0.984136331712125</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1543</v>
@@ -5028,19 +5028,19 @@
         <v>1063467</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1047297</v>
+        <v>1048469</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1075571</v>
+        <v>1075648</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9589133121806581</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9443325009492655</v>
+        <v>0.9453896673981186</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9698268160099657</v>
+        <v>0.969896596199607</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2429</v>
@@ -5049,19 +5049,19 @@
         <v>1995175</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1974542</v>
+        <v>1974237</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2010485</v>
+        <v>2011180</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9659081304373397</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.955919433008191</v>
+        <v>0.9557717876307125</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9733198426819856</v>
+        <v>0.9736566057022381</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>16439</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8780</v>
+        <v>8632</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28038</v>
+        <v>27993</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01580095457098733</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008439517302984163</v>
+        <v>0.008297511221058292</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02695047260747646</v>
+        <v>0.02690654316957345</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -5174,19 +5174,19 @@
         <v>17763</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11537</v>
+        <v>11138</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27591</v>
+        <v>27393</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01725649347910363</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01120862699899054</v>
+        <v>0.01082036116681535</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02680529209282013</v>
+        <v>0.02661263640394855</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>35</v>
@@ -5195,19 +5195,19 @@
         <v>34201</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24563</v>
+        <v>24377</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48974</v>
+        <v>47894</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.01652484458946615</v>
+        <v>0.01652484458946614</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01186801649366389</v>
+        <v>0.01177797689099397</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02366242731449855</v>
+        <v>0.0231404518123572</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>1023923</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1012324</v>
+        <v>1012369</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1031582</v>
+        <v>1031730</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9841990454290127</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9730495273925235</v>
+        <v>0.9730934568304264</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9915604826970157</v>
+        <v>0.9917024887789413</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1471</v>
@@ -5245,19 +5245,19 @@
         <v>1011566</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1001738</v>
+        <v>1001936</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1017792</v>
+        <v>1018191</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9827435065208965</v>
+        <v>0.9827435065208964</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9731947079071798</v>
+        <v>0.973387363596051</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9887913730010094</v>
+        <v>0.9891796388331846</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2480</v>
@@ -5266,19 +5266,19 @@
         <v>2035490</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2020717</v>
+        <v>2021797</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2045128</v>
+        <v>2045314</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9834751554105339</v>
+        <v>0.9834751554105338</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9763375726855018</v>
+        <v>0.9768595481876428</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9881319835063361</v>
+        <v>0.988222023109006</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>26325</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17500</v>
+        <v>16975</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38599</v>
+        <v>38883</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02730969072686176</v>
+        <v>0.02730969072686175</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01815511388591512</v>
+        <v>0.01760958139795795</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04004263512947861</v>
+        <v>0.04033792236361979</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -5391,19 +5391,19 @@
         <v>19803</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12795</v>
+        <v>13372</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28625</v>
+        <v>29512</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.02192694516996015</v>
+        <v>0.02192694516996016</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01416656220426108</v>
+        <v>0.01480588402680896</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03169506920618588</v>
+        <v>0.03267715262659156</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -5412,19 +5412,19 @@
         <v>46128</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33860</v>
+        <v>35470</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>60388</v>
+        <v>60938</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02470594876558731</v>
+        <v>0.02470594876558732</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01813533930657433</v>
+        <v>0.01899758657355368</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0323430940866584</v>
+        <v>0.03263771007425422</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>937617</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>925343</v>
+        <v>925059</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>946442</v>
+        <v>946967</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9726903092731384</v>
+        <v>0.9726903092731383</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9599573648705213</v>
+        <v>0.9596620776363799</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9818448861140849</v>
+        <v>0.982390418602042</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1288</v>
@@ -5462,19 +5462,19 @@
         <v>883347</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>874525</v>
+        <v>873638</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>890355</v>
+        <v>889778</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9780730548300398</v>
+        <v>0.9780730548300399</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9683049307938143</v>
+        <v>0.9673228473734083</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.985833437795739</v>
+        <v>0.9851941159731912</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2199</v>
@@ -5483,19 +5483,19 @@
         <v>1820964</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1806704</v>
+        <v>1806154</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1833232</v>
+        <v>1831622</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9752940512344127</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9676569059133416</v>
+        <v>0.9673622899257456</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9818646606934256</v>
+        <v>0.9810024134264446</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>93413</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72814</v>
+        <v>74240</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>114613</v>
+        <v>119350</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.02701144457354854</v>
+        <v>0.02701144457354853</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02105495871545155</v>
+        <v>0.02146740571287249</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0331417453685014</v>
+        <v>0.03451165318982761</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>139</v>
@@ -5608,19 +5608,19 @@
         <v>120611</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>100002</v>
+        <v>101622</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>143072</v>
+        <v>147737</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03292068501652186</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02729542788073816</v>
+        <v>0.02773758574917264</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03905143388459988</v>
+        <v>0.04032489024703988</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>219</v>
@@ -5629,19 +5629,19 @@
         <v>214023</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>186679</v>
+        <v>184913</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>248127</v>
+        <v>244775</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03005128374302068</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02621179807685324</v>
+        <v>0.02596391421828666</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03483981674709172</v>
+        <v>0.03436912456643031</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3364849</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3343649</v>
+        <v>3338912</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3385448</v>
+        <v>3384022</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9729885554264514</v>
+        <v>0.9729885554264515</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9668582546314987</v>
+        <v>0.9654883468101723</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9789450412845485</v>
+        <v>0.9785325942871275</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5122</v>
@@ -5679,19 +5679,19 @@
         <v>3543066</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3520605</v>
+        <v>3515940</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3563675</v>
+        <v>3562055</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.967079314983478</v>
+        <v>0.9670793149834781</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9609485661154002</v>
+        <v>0.9596751097529601</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9727045721192616</v>
+        <v>0.9722624142508273</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8359</v>
@@ -5700,19 +5700,19 @@
         <v>6907916</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6873812</v>
+        <v>6877164</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6935260</v>
+        <v>6937026</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9699487162569792</v>
+        <v>0.9699487162569791</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9651601832529084</v>
+        <v>0.9656308754335697</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9737882019231467</v>
+        <v>0.9740360857817134</v>
       </c>
     </row>
     <row r="18">
